--- a/assets/files/Corp.xlsx
+++ b/assets/files/Corp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Domain</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Shaik</t>
+  </si>
+  <si>
+    <t>Total All Level</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -258,6 +261,30 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -265,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -300,6 +327,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -583,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,10 +637,12 @@
     <col min="11" max="11" width="37" style="1" customWidth="1"/>
     <col min="12" max="12" width="24.36328125" style="1" customWidth="1"/>
     <col min="13" max="13" width="30.81640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -622,7 +657,7 @@
       <c r="J1" s="15"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -665,8 +700,11 @@
       <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="O2" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E4" s="8">
         <v>4</v>
       </c>
@@ -698,8 +736,15 @@
         <f>SUM(E4:M4)</f>
         <v>35</v>
       </c>
+      <c r="O4" s="8">
+        <v>102</v>
+      </c>
+      <c r="P4" s="2">
+        <f>102*5</f>
+        <v>510</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -729,8 +774,16 @@
         <f t="shared" ref="N5:N9" si="0">SUM(E5:M5)</f>
         <v>9</v>
       </c>
+      <c r="O5" s="5">
+        <f>N5/102*100</f>
+        <v>8.8235294117647065</v>
+      </c>
+      <c r="P5" s="18">
+        <f>45/510*100</f>
+        <v>8.8235294117647065</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -757,8 +810,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="O6" s="5">
+        <f t="shared" ref="O6:O9" si="1">N6/102*100</f>
+        <v>8.8235294117647065</v>
+      </c>
+      <c r="P6" s="19"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -785,8 +843,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>8.8235294117647065</v>
+      </c>
+      <c r="P7" s="19"/>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -813,8 +876,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>8.8235294117647065</v>
+      </c>
+      <c r="P8" s="19"/>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -841,11 +909,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>8.8235294117647065</v>
+      </c>
+      <c r="P9" s="19"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="P5:P9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1"/>
